--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3128.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3128.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.220912458834239</v>
+        <v>1.667213916778564</v>
       </c>
       <c r="B1">
-        <v>1.687346270418693</v>
+        <v>1.916872262954712</v>
       </c>
       <c r="C1">
-        <v>2.947873521384103</v>
+        <v>1.947595357894897</v>
       </c>
       <c r="D1">
-        <v>5.345234566013141</v>
+        <v>2.494866371154785</v>
       </c>
       <c r="E1">
-        <v>1.462802296059679</v>
+        <v>3.612186431884766</v>
       </c>
     </row>
   </sheetData>
